--- a/market_data/trf.xlsx
+++ b/market_data/trf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Delivery month</t>
   </si>
@@ -42,15 +42,12 @@
   <si>
     <t>Open interest (adj.)</t>
   </si>
-  <si>
-    <t>Total</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +63,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.5500000000000007"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9.5500000000000007"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -123,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -143,10 +133,7 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +479,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44166</v>
+        <v>43983</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -506,22 +493,22 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
-        <v>3102.94</v>
-      </c>
-      <c r="G2" s="6">
-        <v>41525</v>
+      <c r="F2" s="7">
+        <v>3108.96</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>440318</v>
+        <v>12801</v>
       </c>
       <c r="I2" s="6">
-        <v>461343</v>
+        <v>12801</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -535,22 +522,22 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <v>3108.96</v>
+      <c r="F3" s="7">
+        <v>3101.94</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>12801</v>
-      </c>
-      <c r="I3" s="6">
-        <v>12801</v>
+      <c r="H3" s="4">
+        <v>600</v>
+      </c>
+      <c r="I3" s="4">
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -564,22 +551,22 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
-        <v>3101.94</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>600</v>
-      </c>
-      <c r="I4" s="4">
-        <v>600</v>
+      <c r="F4" s="7">
+        <v>3102.94</v>
+      </c>
+      <c r="G4" s="6">
+        <v>41525</v>
+      </c>
+      <c r="H4" s="6">
+        <v>440318</v>
+      </c>
+      <c r="I4" s="6">
+        <v>461343</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>44531</v>
+        <v>44256</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -593,22 +580,22 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>3115.98</v>
-      </c>
-      <c r="G5" s="6">
-        <v>32000</v>
-      </c>
-      <c r="H5" s="6">
-        <v>322898</v>
-      </c>
-      <c r="I5" s="6">
-        <v>315598</v>
+      <c r="F5" s="7">
+        <v>3108.79</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>825</v>
+      </c>
+      <c r="I5" s="4">
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -622,22 +609,22 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
-        <v>3108.79</v>
+      <c r="F6" s="7">
+        <v>3115.24</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>825</v>
-      </c>
-      <c r="I6" s="4">
-        <v>825</v>
+      <c r="H6" s="6">
+        <v>3770</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3770</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -651,22 +638,22 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>3115.24</v>
+      <c r="F7" s="7">
+        <v>3115.88</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>3770</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3770</v>
+      <c r="H7" s="4">
+        <v>201</v>
+      </c>
+      <c r="I7" s="4">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -680,22 +667,22 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
-        <v>3115.88</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>201</v>
-      </c>
-      <c r="I8" s="4">
-        <v>201</v>
+      <c r="F8" s="7">
+        <v>3115.98</v>
+      </c>
+      <c r="G8" s="6">
+        <v>32000</v>
+      </c>
+      <c r="H8" s="6">
+        <v>322898</v>
+      </c>
+      <c r="I8" s="6">
+        <v>315598</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44896</v>
+        <v>44621</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -709,22 +696,22 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
-        <v>3128.66</v>
+      <c r="F9" s="7">
+        <v>3119.81</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="H9" s="6">
-        <v>255650</v>
-      </c>
-      <c r="I9" s="6">
-        <v>255650</v>
+      <c r="H9" s="4">
+        <v>200</v>
+      </c>
+      <c r="I9" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -738,22 +725,22 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
-        <v>3119.81</v>
+      <c r="F10" s="7">
+        <v>3126</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
-        <v>200</v>
-      </c>
-      <c r="I10" s="4">
-        <v>200</v>
+      <c r="H10" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -767,22 +754,22 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="5">
-        <v>3126</v>
+      <c r="F11" s="7">
+        <v>3127.76</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
-        <v>5000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5000</v>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -796,22 +783,22 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="5">
-        <v>3127.76</v>
+      <c r="F12" s="7">
+        <v>3128.66</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
+      <c r="H12" s="6">
+        <v>255650</v>
+      </c>
+      <c r="I12" s="6">
+        <v>255650</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>45261</v>
+        <v>44986</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -825,22 +812,22 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="5">
-        <v>3150.72</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1500</v>
-      </c>
-      <c r="H13" s="6">
-        <v>136012</v>
-      </c>
-      <c r="I13" s="6">
-        <v>136012</v>
+      <c r="F13" s="7">
+        <v>3134.92</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -854,22 +841,22 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="5">
-        <v>3134.92</v>
+      <c r="F14" s="7">
+        <v>3144.48</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -883,22 +870,22 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="5">
-        <v>3144.48</v>
+      <c r="F15" s="7">
+        <v>3147.6</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I15" s="4">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -912,22 +899,22 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="5">
-        <v>3147.6</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>25</v>
-      </c>
-      <c r="I16" s="4">
-        <v>25</v>
+      <c r="F16" s="7">
+        <v>3150.72</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1500</v>
+      </c>
+      <c r="H16" s="6">
+        <v>136012</v>
+      </c>
+      <c r="I16" s="6">
+        <v>136012</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>45627</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="4">
         <v>0</v>
@@ -942,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>3178.84</v>
+        <v>3158.14</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="6">
-        <v>133301</v>
-      </c>
-      <c r="I17" s="6">
-        <v>138301</v>
+      <c r="H17" s="4">
+        <v>200</v>
+      </c>
+      <c r="I17" s="4">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -971,21 +958,21 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>3158.14</v>
+        <v>3170.99</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1000,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>3170.99</v>
+        <v>3174.92</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -1014,7 +1001,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -1029,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>3174.92</v>
+        <v>3178.84</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
+      <c r="H20" s="6">
+        <v>133301</v>
+      </c>
+      <c r="I20" s="6">
+        <v>138301</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>45992</v>
+        <v>45717</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -1058,21 +1045,21 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>3205.46</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1500</v>
-      </c>
-      <c r="H21" s="6">
-        <v>153515</v>
-      </c>
-      <c r="I21" s="6">
-        <v>153515</v>
+        <v>3188.19</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>100</v>
+      </c>
+      <c r="I21" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -1087,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>3188.19</v>
+        <v>3194.52</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>45809</v>
+        <v>45992</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -1116,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>3194.52</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
+        <v>3205.46</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="6">
+        <v>153515</v>
+      </c>
+      <c r="I23" s="6">
+        <v>153515</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1244,26 +1231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8">
-        <v>76525</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1553772</v>
-      </c>
-      <c r="I28" s="8">
-        <v>1572497</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:I27">
+    <sortCondition ref="A2:A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
